--- a/resultados/pretratamiento-tablas-control/pretrat-all-elo-dificil.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-all-elo-dificil.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="1316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="1315">
   <si>
     <t>Pretrat</t>
   </si>
@@ -121,7 +121,7 @@
     <t>46.484 (915)</t>
   </si>
   <si>
-    <t>9.872 (915)</t>
+    <t>9.873 (915)</t>
   </si>
   <si>
     <t>9.777 (915)</t>
@@ -175,7 +175,7 @@
     <t>41.852 (595)</t>
   </si>
   <si>
-    <t>10.96 (595)</t>
+    <t>10.961 (595)</t>
   </si>
   <si>
     <t>11.069 (595)</t>
@@ -229,7 +229,7 @@
     <t>37.393 (61)</t>
   </si>
   <si>
-    <t>11.295 (61)</t>
+    <t>11.262 (61)</t>
   </si>
   <si>
     <t>12.836 (61)</t>
@@ -376,7 +376,7 @@
     <t>42.844 (729)</t>
   </si>
   <si>
-    <t>10.652 (729)</t>
+    <t>10.654 (729)</t>
   </si>
   <si>
     <t>10.66 (729)</t>
@@ -427,7 +427,7 @@
     <t>36.081 (111)</t>
   </si>
   <si>
-    <t>11.703 (111)</t>
+    <t>11.685 (111)</t>
   </si>
   <si>
     <t>12.793 (111)</t>
@@ -535,7 +535,7 @@
     <t>47.88 (574)</t>
   </si>
   <si>
-    <t>9.721 (574)</t>
+    <t>9.725 (574)</t>
   </si>
   <si>
     <t>9.575 (574)</t>
@@ -643,7 +643,7 @@
     <t>38.141 (184)</t>
   </si>
   <si>
-    <t>11.815 (184)</t>
+    <t>11.81 (184)</t>
   </si>
   <si>
     <t>12.098 (184)</t>
@@ -691,7 +691,7 @@
     <t>38.222 (9)</t>
   </si>
   <si>
-    <t>13.0 (9)</t>
+    <t>12.889 (9)</t>
   </si>
   <si>
     <t>13.778 (9)</t>
@@ -745,7 +745,7 @@
     <t>48.251 (438)</t>
   </si>
   <si>
-    <t>9.703 (438)</t>
+    <t>9.708 (438)</t>
   </si>
   <si>
     <t>9.368 (438)</t>
@@ -853,7 +853,7 @@
     <t>40.011 (272)</t>
   </si>
   <si>
-    <t>11.54 (272)</t>
+    <t>11.537 (272)</t>
   </si>
   <si>
     <t>11.702 (272)</t>
@@ -907,7 +907,7 @@
     <t>33.941 (17)</t>
   </si>
   <si>
-    <t>11.882 (17)</t>
+    <t>11.824 (17)</t>
   </si>
   <si>
     <t>13.353 (17)</t>
@@ -1015,7 +1015,7 @@
     <t>42.972 (720)</t>
   </si>
   <si>
-    <t>10.832 (720)</t>
+    <t>10.833 (720)</t>
   </si>
   <si>
     <t>10.783 (720)</t>
@@ -1069,7 +1069,7 @@
     <t>40.544 (114)</t>
   </si>
   <si>
-    <t>11.316 (114)</t>
+    <t>11.307 (114)</t>
   </si>
   <si>
     <t>12.456 (114)</t>
@@ -1171,7 +1171,7 @@
     <t>46.866 (531)</t>
   </si>
   <si>
-    <t>9.685 (531)</t>
+    <t>9.684 (531)</t>
   </si>
   <si>
     <t>9.783 (531)</t>
@@ -1225,7 +1225,7 @@
     <t>44.339 (817)</t>
   </si>
   <si>
-    <t>10.437 (817)</t>
+    <t>10.439 (817)</t>
   </si>
   <si>
     <t>10.236 (817)</t>
@@ -1279,7 +1279,7 @@
     <t>39.005 (210)</t>
   </si>
   <si>
-    <t>11.529 (210)</t>
+    <t>11.524 (210)</t>
   </si>
   <si>
     <t>12.305 (210)</t>
@@ -1543,7 +1543,7 @@
     <t>40.106 (339)</t>
   </si>
   <si>
-    <t>11.41 (339)</t>
+    <t>11.413 (339)</t>
   </si>
   <si>
     <t>11.861 (339)</t>
@@ -1591,7 +1591,7 @@
     <t>34.139 (36)</t>
   </si>
   <si>
-    <t>12.028 (36)</t>
+    <t>12.0 (36)</t>
   </si>
   <si>
     <t>12.722 (36)</t>
@@ -2143,7 +2143,7 @@
     <t>47.688 (385)</t>
   </si>
   <si>
-    <t>9.706 (385)</t>
+    <t>9.704 (385)</t>
   </si>
   <si>
     <t>9.558 (385)</t>
@@ -2305,7 +2305,7 @@
     <t>37.938 (32)</t>
   </si>
   <si>
-    <t>11.438 (32)</t>
+    <t>11.469 (32)</t>
   </si>
   <si>
     <t>13.062 (32)</t>
@@ -2461,7 +2461,7 @@
     <t>45.817 (723)</t>
   </si>
   <si>
-    <t>9.929 (723)</t>
+    <t>9.928 (723)</t>
   </si>
   <si>
     <t>9.92 (723)</t>
@@ -2569,7 +2569,7 @@
     <t>39.895 (86)</t>
   </si>
   <si>
-    <t>10.86 (86)</t>
+    <t>10.872 (86)</t>
   </si>
   <si>
     <t>11.767 (86)</t>
@@ -2728,7 +2728,7 @@
     <t>45.873 (614)</t>
   </si>
   <si>
-    <t>9.941 (614)</t>
+    <t>9.94 (614)</t>
   </si>
   <si>
     <t>9.811 (614)</t>
@@ -2782,7 +2782,7 @@
     <t>43.446 (612)</t>
   </si>
   <si>
-    <t>10.549 (612)</t>
+    <t>10.547 (612)</t>
   </si>
   <si>
     <t>10.771 (612)</t>
@@ -2836,7 +2836,7 @@
     <t>38.762 (172)</t>
   </si>
   <si>
-    <t>11.674 (172)</t>
+    <t>11.686 (172)</t>
   </si>
   <si>
     <t>12.25 (172)</t>
@@ -2890,9 +2890,6 @@
     <t>32.222 (9)</t>
   </si>
   <si>
-    <t>12.889 (9)</t>
-  </si>
-  <si>
     <t>14.222 (9)</t>
   </si>
   <si>
@@ -2986,7 +2983,7 @@
     <t>48.378 (445)</t>
   </si>
   <si>
-    <t>9.337 (445)</t>
+    <t>9.335 (445)</t>
   </si>
   <si>
     <t>9.279 (445)</t>
@@ -3148,7 +3145,7 @@
     <t>30.722 (18)</t>
   </si>
   <si>
-    <t>12.556 (18)</t>
+    <t>12.611 (18)</t>
   </si>
   <si>
     <t>12.722 (18)</t>
@@ -3199,7 +3196,7 @@
     <t>49.801 (272)</t>
   </si>
   <si>
-    <t>9.276 (272)</t>
+    <t>9.268 (272)</t>
   </si>
   <si>
     <t>9.265 (272)</t>
@@ -3253,7 +3250,7 @@
     <t>44.69 (756)</t>
   </si>
   <si>
-    <t>10.229 (756)</t>
+    <t>10.23 (756)</t>
   </si>
   <si>
     <t>10.094 (756)</t>
@@ -3307,7 +3304,7 @@
     <t>41.637 (471)</t>
   </si>
   <si>
-    <t>11.032 (471)</t>
+    <t>11.03 (471)</t>
   </si>
   <si>
     <t>11.272 (471)</t>
@@ -3361,7 +3358,7 @@
     <t>38.8 (70)</t>
   </si>
   <si>
-    <t>11.0 (70)</t>
+    <t>11.029 (70)</t>
   </si>
   <si>
     <t>12.0 (70)</t>
@@ -3463,7 +3460,7 @@
     <t>46.125 (606)</t>
   </si>
   <si>
-    <t>9.876 (606)</t>
+    <t>9.873 (606)</t>
   </si>
   <si>
     <t>9.611 (606)</t>
@@ -3517,7 +3514,7 @@
     <t>42.429 (620)</t>
   </si>
   <si>
-    <t>10.929 (620)</t>
+    <t>10.931 (620)</t>
   </si>
   <si>
     <t>11.113 (620)</t>
@@ -3571,7 +3568,7 @@
     <t>39.591 (159)</t>
   </si>
   <si>
-    <t>11.101 (159)</t>
+    <t>11.107 (159)</t>
   </si>
   <si>
     <t>11.686 (159)</t>
@@ -3730,7 +3727,7 @@
     <t>46.75 (460)</t>
   </si>
   <si>
-    <t>9.57 (460)</t>
+    <t>9.567 (460)</t>
   </si>
   <si>
     <t>9.391 (460)</t>
@@ -3784,7 +3781,7 @@
     <t>43.821 (675)</t>
   </si>
   <si>
-    <t>10.661 (675)</t>
+    <t>10.659 (675)</t>
   </si>
   <si>
     <t>10.677 (675)</t>
@@ -3838,7 +3835,7 @@
     <t>41.497 (298)</t>
   </si>
   <si>
-    <t>10.943 (298)</t>
+    <t>10.95 (298)</t>
   </si>
   <si>
     <t>11.312 (298)</t>
@@ -4410,10 +4407,10 @@
         <v>2.084</v>
       </c>
       <c r="I2">
-        <v>1.394</v>
+        <v>1.398</v>
       </c>
       <c r="J2">
-        <v>0.164</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4442,10 +4439,10 @@
         <v>-2.068</v>
       </c>
       <c r="I3">
-        <v>-1.374</v>
+        <v>-1.204</v>
       </c>
       <c r="J3">
-        <v>0.17</v>
+        <v>0.229</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4474,10 +4471,10 @@
         <v>-1.26</v>
       </c>
       <c r="I4">
-        <v>-0.6840000000000001</v>
+        <v>-0.579</v>
       </c>
       <c r="J4">
-        <v>0.494</v>
+        <v>0.5629999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4506,10 +4503,10 @@
         <v>-1.241</v>
       </c>
       <c r="I5">
-        <v>-0.671</v>
+        <v>-0.59</v>
       </c>
       <c r="J5">
-        <v>0.502</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4538,10 +4535,10 @@
         <v>-1.114</v>
       </c>
       <c r="I6">
-        <v>-0.596</v>
+        <v>-0.492</v>
       </c>
       <c r="J6">
-        <v>0.551</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4570,10 +4567,10 @@
         <v>-2.289</v>
       </c>
       <c r="I7">
-        <v>-1.231</v>
+        <v>-1.216</v>
       </c>
       <c r="J7">
-        <v>0.218</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4599,13 +4596,13 @@
         <v>0.037</v>
       </c>
       <c r="H8">
-        <v>-0.9399999999999999</v>
+        <v>-0.96</v>
       </c>
       <c r="I8">
-        <v>-1.596</v>
+        <v>-1.636</v>
       </c>
       <c r="J8">
-        <v>0.111</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4634,10 +4631,10 @@
         <v>0.764</v>
       </c>
       <c r="I9">
-        <v>1.244</v>
+        <v>1.023</v>
       </c>
       <c r="J9">
-        <v>0.214</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4666,10 +4663,10 @@
         <v>0.582</v>
       </c>
       <c r="I10">
-        <v>0.836</v>
+        <v>0.677</v>
       </c>
       <c r="J10">
-        <v>0.403</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4698,10 +4695,10 @@
         <v>0.789</v>
       </c>
       <c r="I11">
-        <v>1.133</v>
+        <v>0.927</v>
       </c>
       <c r="J11">
-        <v>0.257</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4730,10 +4727,10 @@
         <v>0.361</v>
       </c>
       <c r="I12">
-        <v>0.511</v>
+        <v>0.429</v>
       </c>
       <c r="J12">
-        <v>0.609</v>
+        <v>0.668</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4762,10 +4759,10 @@
         <v>0.947</v>
       </c>
       <c r="I13">
-        <v>1.362</v>
+        <v>1.286</v>
       </c>
       <c r="J13">
-        <v>0.173</v>
+        <v>0.198</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4794,10 +4791,10 @@
         <v>-0.013</v>
       </c>
       <c r="I14">
-        <v>-1.114</v>
+        <v>-1.123</v>
       </c>
       <c r="J14">
-        <v>0.266</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4826,10 +4823,10 @@
         <v>-0.005</v>
       </c>
       <c r="I15">
-        <v>-0.404</v>
+        <v>-0.349</v>
       </c>
       <c r="J15">
-        <v>0.6870000000000001</v>
+        <v>0.727</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4858,10 +4855,10 @@
         <v>-0.021</v>
       </c>
       <c r="I16">
-        <v>-1.557</v>
+        <v>-1.274</v>
       </c>
       <c r="J16">
-        <v>0.12</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4890,10 +4887,10 @@
         <v>-0.011</v>
       </c>
       <c r="I17">
-        <v>-0.8080000000000001</v>
+        <v>-0.781</v>
       </c>
       <c r="J17">
-        <v>0.419</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4922,10 +4919,10 @@
         <v>-0.003</v>
       </c>
       <c r="I18">
-        <v>-0.218</v>
+        <v>-0.186</v>
       </c>
       <c r="J18">
-        <v>0.828</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4954,10 +4951,10 @@
         <v>0.016</v>
       </c>
       <c r="I19">
-        <v>1.077</v>
+        <v>1.092</v>
       </c>
       <c r="J19">
-        <v>0.282</v>
+        <v>0.275</v>
       </c>
     </row>
   </sheetData>
@@ -5050,10 +5047,10 @@
         <v>1.306</v>
       </c>
       <c r="J2">
-        <v>0.854</v>
+        <v>0.859</v>
       </c>
       <c r="K2">
-        <v>0.394</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5085,10 +5082,10 @@
         <v>-2.673</v>
       </c>
       <c r="J3">
-        <v>-1.736</v>
+        <v>-1.612</v>
       </c>
       <c r="K3">
-        <v>0.083</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5120,10 +5117,10 @@
         <v>-0.622</v>
       </c>
       <c r="J4">
-        <v>-0.331</v>
+        <v>-0.3</v>
       </c>
       <c r="K4">
-        <v>0.741</v>
+        <v>0.764</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5155,10 +5152,10 @@
         <v>-2.163</v>
       </c>
       <c r="J5">
-        <v>-1.144</v>
+        <v>-1.075</v>
       </c>
       <c r="K5">
-        <v>0.253</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5190,10 +5187,10 @@
         <v>-0.382</v>
       </c>
       <c r="J6">
-        <v>-0.2</v>
+        <v>-0.176</v>
       </c>
       <c r="K6">
-        <v>0.842</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5225,10 +5222,10 @@
         <v>-2.058</v>
       </c>
       <c r="J7">
-        <v>-1.082</v>
+        <v>-1.017</v>
       </c>
       <c r="K7">
-        <v>0.279</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5257,13 +5254,13 @@
         <v>0.035</v>
       </c>
       <c r="I8">
-        <v>-0.589</v>
+        <v>-0.58</v>
       </c>
       <c r="J8">
-        <v>-0.977</v>
+        <v>-0.971</v>
       </c>
       <c r="K8">
-        <v>0.329</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5295,10 +5292,10 @@
         <v>0.784</v>
       </c>
       <c r="J9">
-        <v>1.248</v>
+        <v>1.068</v>
       </c>
       <c r="K9">
-        <v>0.212</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5330,10 +5327,10 @@
         <v>0.032</v>
       </c>
       <c r="J10">
-        <v>0.045</v>
+        <v>0.038</v>
       </c>
       <c r="K10">
-        <v>0.964</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5365,10 +5362,10 @@
         <v>0.9429999999999999</v>
       </c>
       <c r="J11">
-        <v>1.325</v>
+        <v>1.181</v>
       </c>
       <c r="K11">
-        <v>0.185</v>
+        <v>0.238</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5400,10 +5397,10 @@
         <v>0.122</v>
       </c>
       <c r="J12">
-        <v>0.169</v>
+        <v>0.149</v>
       </c>
       <c r="K12">
-        <v>0.866</v>
+        <v>0.881</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5435,10 +5432,10 @@
         <v>0.501</v>
       </c>
       <c r="J13">
-        <v>0.704</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="K13">
-        <v>0.481</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5470,10 +5467,10 @@
         <v>-0.005</v>
       </c>
       <c r="J14">
-        <v>-0.472</v>
+        <v>-0.471</v>
       </c>
       <c r="K14">
-        <v>0.637</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5505,10 +5502,10 @@
         <v>-0.011</v>
       </c>
       <c r="J15">
-        <v>-0.862</v>
+        <v>-0.78</v>
       </c>
       <c r="K15">
-        <v>0.389</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5540,10 +5537,10 @@
         <v>-0.017</v>
       </c>
       <c r="J16">
-        <v>-1.236</v>
+        <v>-0.925</v>
       </c>
       <c r="K16">
-        <v>0.217</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5575,10 +5572,10 @@
         <v>-0.022</v>
       </c>
       <c r="J17">
-        <v>-1.527</v>
+        <v>-1.436</v>
       </c>
       <c r="K17">
-        <v>0.127</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5610,10 +5607,10 @@
         <v>-0.015</v>
       </c>
       <c r="J18">
-        <v>-1.045</v>
+        <v>-0.929</v>
       </c>
       <c r="K18">
-        <v>0.296</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5645,10 +5642,10 @@
         <v>0.013</v>
       </c>
       <c r="J19">
-        <v>0.831</v>
+        <v>0.748</v>
       </c>
       <c r="K19">
-        <v>0.406</v>
+        <v>0.454</v>
       </c>
     </row>
   </sheetData>
@@ -5748,10 +5745,10 @@
         <v>0.915</v>
       </c>
       <c r="K2">
-        <v>0.517</v>
+        <v>0.542</v>
       </c>
       <c r="L2">
-        <v>0.605</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -5786,10 +5783,10 @@
         <v>-3.694</v>
       </c>
       <c r="K3">
-        <v>-2.075</v>
+        <v>-2.021</v>
       </c>
       <c r="L3">
-        <v>0.038</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5824,10 +5821,10 @@
         <v>-2.065</v>
       </c>
       <c r="K4">
-        <v>-0.949</v>
+        <v>-0.885</v>
       </c>
       <c r="L4">
-        <v>0.343</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -5862,10 +5859,10 @@
         <v>-3.975</v>
       </c>
       <c r="K5">
-        <v>-1.819</v>
+        <v>-1.842</v>
       </c>
       <c r="L5">
-        <v>0.06900000000000001</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -5900,10 +5897,10 @@
         <v>-1.824</v>
       </c>
       <c r="K6">
-        <v>-0.825</v>
+        <v>-0.647</v>
       </c>
       <c r="L6">
-        <v>0.41</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -5938,10 +5935,10 @@
         <v>-3.752</v>
       </c>
       <c r="K7">
-        <v>-1.707</v>
+        <v>-1.511</v>
       </c>
       <c r="L7">
-        <v>0.08799999999999999</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -5973,13 +5970,13 @@
         <v>0.027</v>
       </c>
       <c r="J8">
-        <v>-0.541</v>
+        <v>-0.539</v>
       </c>
       <c r="K8">
-        <v>-0.775</v>
+        <v>-0.778</v>
       </c>
       <c r="L8">
-        <v>0.439</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -6014,10 +6011,10 @@
         <v>1.288</v>
       </c>
       <c r="K9">
-        <v>1.775</v>
+        <v>1.568</v>
       </c>
       <c r="L9">
-        <v>0.076</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -6052,10 +6049,10 @@
         <v>0.796</v>
       </c>
       <c r="K10">
-        <v>0.967</v>
+        <v>0.838</v>
       </c>
       <c r="L10">
-        <v>0.334</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -6090,10 +6087,10 @@
         <v>1.662</v>
       </c>
       <c r="K11">
-        <v>2.019</v>
+        <v>1.93</v>
       </c>
       <c r="L11">
-        <v>0.044</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -6128,10 +6125,10 @@
         <v>0.784</v>
       </c>
       <c r="K12">
-        <v>0.9389999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="L12">
-        <v>0.348</v>
+        <v>0.459</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -6166,10 +6163,10 @@
         <v>1.242</v>
       </c>
       <c r="K13">
-        <v>1.51</v>
+        <v>1.378</v>
       </c>
       <c r="L13">
-        <v>0.131</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -6204,10 +6201,10 @@
         <v>-0.011</v>
       </c>
       <c r="K14">
-        <v>-0.8179999999999999</v>
+        <v>-0.775</v>
       </c>
       <c r="L14">
-        <v>0.413</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -6242,10 +6239,10 @@
         <v>-0.021</v>
       </c>
       <c r="K15">
-        <v>-1.487</v>
+        <v>-1.381</v>
       </c>
       <c r="L15">
-        <v>0.137</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -6280,10 +6277,10 @@
         <v>-0.026</v>
       </c>
       <c r="K16">
-        <v>-1.684</v>
+        <v>-1.282</v>
       </c>
       <c r="L16">
-        <v>0.092</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -6318,10 +6315,10 @@
         <v>-0.025</v>
       </c>
       <c r="K17">
-        <v>-1.533</v>
+        <v>-1.319</v>
       </c>
       <c r="L17">
-        <v>0.125</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -6356,10 +6353,10 @@
         <v>-0.025</v>
       </c>
       <c r="K18">
-        <v>-1.474</v>
+        <v>-1.339</v>
       </c>
       <c r="L18">
-        <v>0.141</v>
+        <v>0.181</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -6394,10 +6391,10 @@
         <v>0.022</v>
       </c>
       <c r="K19">
-        <v>1.276</v>
+        <v>1.205</v>
       </c>
       <c r="L19">
-        <v>0.202</v>
+        <v>0.228</v>
       </c>
     </row>
   </sheetData>
@@ -6485,7 +6482,7 @@
         <v>947</v>
       </c>
       <c r="G2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H2">
         <v>1572</v>
@@ -6497,10 +6494,10 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="K2">
-        <v>0.458</v>
+        <v>0.496</v>
       </c>
       <c r="L2">
-        <v>0.647</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -6523,7 +6520,7 @@
         <v>948</v>
       </c>
       <c r="G3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H3">
         <v>1572</v>
@@ -6535,10 +6532,10 @@
         <v>-5.352</v>
       </c>
       <c r="K3">
-        <v>-2.618</v>
+        <v>-2.571</v>
       </c>
       <c r="L3">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -6561,7 +6558,7 @@
         <v>949</v>
       </c>
       <c r="G4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H4">
         <v>1572</v>
@@ -6573,10 +6570,10 @@
         <v>-4.291</v>
       </c>
       <c r="K4">
-        <v>-1.715</v>
+        <v>-1.582</v>
       </c>
       <c r="L4">
-        <v>0.08699999999999999</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -6599,7 +6596,7 @@
         <v>950</v>
       </c>
       <c r="G5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H5">
         <v>1572</v>
@@ -6611,10 +6608,10 @@
         <v>-4.743</v>
       </c>
       <c r="K5">
-        <v>-1.888</v>
+        <v>-1.925</v>
       </c>
       <c r="L5">
-        <v>0.059</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -6637,7 +6634,7 @@
         <v>951</v>
       </c>
       <c r="G6" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H6">
         <v>1572</v>
@@ -6649,10 +6646,10 @@
         <v>-3.515</v>
       </c>
       <c r="K6">
-        <v>-1.383</v>
+        <v>-1.115</v>
       </c>
       <c r="L6">
-        <v>0.167</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -6675,7 +6672,7 @@
         <v>952</v>
       </c>
       <c r="G7" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H7">
         <v>1572</v>
@@ -6687,10 +6684,10 @@
         <v>-2.411</v>
       </c>
       <c r="K7">
-        <v>-0.953</v>
+        <v>-0.923</v>
       </c>
       <c r="L7">
-        <v>0.341</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -6710,10 +6707,10 @@
         <v>935</v>
       </c>
       <c r="F8" t="s">
-        <v>953</v>
+        <v>220</v>
       </c>
       <c r="G8" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H8">
         <v>1572</v>
@@ -6722,13 +6719,13 @@
         <v>0.02</v>
       </c>
       <c r="J8">
-        <v>-0.434</v>
+        <v>-0.43</v>
       </c>
       <c r="K8">
-        <v>-0.541</v>
+        <v>-0.573</v>
       </c>
       <c r="L8">
-        <v>0.589</v>
+        <v>0.5659999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -6748,10 +6745,10 @@
         <v>936</v>
       </c>
       <c r="F9" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G9" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H9">
         <v>1572</v>
@@ -6763,10 +6760,10 @@
         <v>2.125</v>
       </c>
       <c r="K9">
-        <v>2.548</v>
+        <v>2.287</v>
       </c>
       <c r="L9">
-        <v>0.011</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -6786,10 +6783,10 @@
         <v>937</v>
       </c>
       <c r="F10" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="G10" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H10">
         <v>1572</v>
@@ -6801,10 +6798,10 @@
         <v>1.463</v>
       </c>
       <c r="K10">
-        <v>1.545</v>
+        <v>1.314</v>
       </c>
       <c r="L10">
-        <v>0.123</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -6824,10 +6821,10 @@
         <v>938</v>
       </c>
       <c r="F11" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="G11" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H11">
         <v>1572</v>
@@ -6839,10 +6836,10 @@
         <v>1.494</v>
       </c>
       <c r="K11">
-        <v>1.577</v>
+        <v>1.509</v>
       </c>
       <c r="L11">
-        <v>0.115</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -6862,10 +6859,10 @@
         <v>939</v>
       </c>
       <c r="F12" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="G12" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H12">
         <v>1572</v>
@@ -6877,10 +6874,10 @@
         <v>1.288</v>
       </c>
       <c r="K12">
-        <v>1.341</v>
+        <v>1.123</v>
       </c>
       <c r="L12">
-        <v>0.18</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -6903,7 +6900,7 @@
         <v>225</v>
       </c>
       <c r="G13" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H13">
         <v>1572</v>
@@ -6915,10 +6912,10 @@
         <v>0.461</v>
       </c>
       <c r="K13">
-        <v>0.487</v>
+        <v>0.477</v>
       </c>
       <c r="L13">
-        <v>0.626</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -6938,10 +6935,10 @@
         <v>941</v>
       </c>
       <c r="F14" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H14">
         <v>1572</v>
@@ -6953,10 +6950,10 @@
         <v>-0.013</v>
       </c>
       <c r="K14">
-        <v>-0.872</v>
+        <v>-0.864</v>
       </c>
       <c r="L14">
-        <v>0.383</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -6976,10 +6973,10 @@
         <v>942</v>
       </c>
       <c r="F15" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G15" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H15">
         <v>1572</v>
@@ -6991,10 +6988,10 @@
         <v>-0.029</v>
       </c>
       <c r="K15">
-        <v>-1.761</v>
+        <v>-1.741</v>
       </c>
       <c r="L15">
-        <v>0.078</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -7014,10 +7011,10 @@
         <v>943</v>
       </c>
       <c r="F16" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="G16" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H16">
         <v>1572</v>
@@ -7029,10 +7026,10 @@
         <v>-0.038</v>
       </c>
       <c r="K16">
-        <v>-2.084</v>
+        <v>-1.809</v>
       </c>
       <c r="L16">
-        <v>0.037</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -7052,10 +7049,10 @@
         <v>944</v>
       </c>
       <c r="F17" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="G17" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H17">
         <v>1572</v>
@@ -7067,10 +7064,10 @@
         <v>-0.026</v>
       </c>
       <c r="K17">
-        <v>-1.361</v>
+        <v>-1.177</v>
       </c>
       <c r="L17">
-        <v>0.174</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -7090,10 +7087,10 @@
         <v>945</v>
       </c>
       <c r="F18" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="G18" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H18">
         <v>1572</v>
@@ -7105,10 +7102,10 @@
         <v>-0.027</v>
       </c>
       <c r="K18">
-        <v>-1.375</v>
+        <v>-1.377</v>
       </c>
       <c r="L18">
-        <v>0.169</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -7128,10 +7125,10 @@
         <v>946</v>
       </c>
       <c r="F19" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="G19" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H19">
         <v>1572</v>
@@ -7143,10 +7140,10 @@
         <v>0.031</v>
       </c>
       <c r="K19">
-        <v>1.549</v>
+        <v>1.71</v>
       </c>
       <c r="L19">
-        <v>0.122</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -7211,16 +7208,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F2">
         <v>1572</v>
@@ -7232,10 +7229,10 @@
         <v>0.766</v>
       </c>
       <c r="I2">
-        <v>0.628</v>
+        <v>0.656</v>
       </c>
       <c r="J2">
-        <v>0.53</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7243,16 +7240,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D3" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E3" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F3">
         <v>1572</v>
@@ -7264,10 +7261,10 @@
         <v>-1.53</v>
       </c>
       <c r="I3">
-        <v>-1.246</v>
+        <v>-1.089</v>
       </c>
       <c r="J3">
-        <v>0.213</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7275,16 +7272,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C4" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F4">
         <v>1572</v>
@@ -7296,10 +7293,10 @@
         <v>-0.08799999999999999</v>
       </c>
       <c r="I4">
-        <v>-0.058</v>
+        <v>-0.053</v>
       </c>
       <c r="J4">
-        <v>0.953</v>
+        <v>0.958</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7307,16 +7304,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C5" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D5" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="E5" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F5">
         <v>1572</v>
@@ -7328,10 +7325,10 @@
         <v>-1.44</v>
       </c>
       <c r="I5">
-        <v>-0.956</v>
+        <v>-0.786</v>
       </c>
       <c r="J5">
-        <v>0.339</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7339,16 +7336,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C6" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D6" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E6" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F6">
         <v>1572</v>
@@ -7360,10 +7357,10 @@
         <v>-0.29</v>
       </c>
       <c r="I6">
-        <v>-0.19</v>
+        <v>-0.155</v>
       </c>
       <c r="J6">
-        <v>0.849</v>
+        <v>0.877</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7371,16 +7368,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C7" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D7" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E7" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F7">
         <v>1572</v>
@@ -7392,10 +7389,10 @@
         <v>-0.6899999999999999</v>
       </c>
       <c r="I7">
-        <v>-0.455</v>
+        <v>-0.373</v>
       </c>
       <c r="J7">
-        <v>0.649</v>
+        <v>0.709</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7403,16 +7400,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D8" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E8" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F8">
         <v>1572</v>
@@ -7421,13 +7418,13 @@
         <v>0.055</v>
       </c>
       <c r="H8">
-        <v>-0.443</v>
+        <v>-0.435</v>
       </c>
       <c r="I8">
-        <v>-0.921</v>
+        <v>-0.89</v>
       </c>
       <c r="J8">
-        <v>0.357</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7435,16 +7432,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C9" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D9" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E9" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F9">
         <v>1572</v>
@@ -7456,10 +7453,10 @@
         <v>0.649</v>
       </c>
       <c r="I9">
-        <v>1.296</v>
+        <v>1.072</v>
       </c>
       <c r="J9">
-        <v>0.195</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7467,16 +7464,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C10" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D10" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E10" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F10">
         <v>1572</v>
@@ -7488,10 +7485,10 @@
         <v>-0.07099999999999999</v>
       </c>
       <c r="I10">
-        <v>-0.125</v>
+        <v>-0.106</v>
       </c>
       <c r="J10">
-        <v>0.9</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7499,16 +7496,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C11" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D11" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E11" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F11">
         <v>1572</v>
@@ -7520,10 +7517,10 @@
         <v>0.831</v>
       </c>
       <c r="I11">
-        <v>1.464</v>
+        <v>1.217</v>
       </c>
       <c r="J11">
-        <v>0.143</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7531,16 +7528,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C12" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D12" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E12" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F12">
         <v>1572</v>
@@ -7552,10 +7549,10 @@
         <v>0.344</v>
       </c>
       <c r="I12">
-        <v>0.596</v>
+        <v>0.526</v>
       </c>
       <c r="J12">
-        <v>0.551</v>
+        <v>0.599</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7563,16 +7560,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C13" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D13" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E13" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F13">
         <v>1572</v>
@@ -7584,10 +7581,10 @@
         <v>0.068</v>
       </c>
       <c r="I13">
-        <v>0.12</v>
+        <v>0.101</v>
       </c>
       <c r="J13">
-        <v>0.905</v>
+        <v>0.919</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7595,16 +7592,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C14" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D14" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E14" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F14">
         <v>1572</v>
@@ -7616,10 +7613,10 @@
         <v>-0.002</v>
       </c>
       <c r="I14">
-        <v>-0.256</v>
+        <v>-0.23</v>
       </c>
       <c r="J14">
-        <v>0.798</v>
+        <v>0.8179999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7627,16 +7624,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C15" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D15" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E15" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F15">
         <v>1572</v>
@@ -7648,10 +7645,10 @@
         <v>-0.006</v>
       </c>
       <c r="I15">
-        <v>-0.57</v>
+        <v>-0.472</v>
       </c>
       <c r="J15">
-        <v>0.569</v>
+        <v>0.637</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7659,16 +7656,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C16" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D16" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E16" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F16">
         <v>1572</v>
@@ -7680,10 +7677,10 @@
         <v>-0.012</v>
       </c>
       <c r="I16">
-        <v>-1.101</v>
+        <v>-0.827</v>
       </c>
       <c r="J16">
-        <v>0.271</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7691,16 +7688,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C17" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D17" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="E17" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F17">
         <v>1572</v>
@@ -7712,10 +7709,10 @@
         <v>-0.007</v>
       </c>
       <c r="I17">
-        <v>-0.588</v>
+        <v>-0.581</v>
       </c>
       <c r="J17">
-        <v>0.5570000000000001</v>
+        <v>0.5610000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7723,16 +7720,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C18" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D18" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E18" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F18">
         <v>1572</v>
@@ -7744,10 +7741,10 @@
         <v>-0.004</v>
       </c>
       <c r="I18">
-        <v>-0.31</v>
+        <v>-0.286</v>
       </c>
       <c r="J18">
-        <v>0.757</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7755,16 +7752,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C19" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D19" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E19" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F19">
         <v>1572</v>
@@ -7776,10 +7773,10 @@
         <v>0.011</v>
       </c>
       <c r="I19">
-        <v>0.9429999999999999</v>
+        <v>0.973</v>
       </c>
       <c r="J19">
-        <v>0.346</v>
+        <v>0.331</v>
       </c>
     </row>
   </sheetData>
@@ -7848,16 +7845,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F2" t="s">
         <v>770</v>
@@ -7883,16 +7880,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F3" t="s">
         <v>771</v>
@@ -7907,10 +7904,10 @@
         <v>-1.792</v>
       </c>
       <c r="J3">
-        <v>-1.221</v>
+        <v>-1.204</v>
       </c>
       <c r="K3">
-        <v>0.222</v>
+        <v>0.229</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7918,16 +7915,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C4" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E4" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F4" t="s">
         <v>772</v>
@@ -7942,10 +7939,10 @@
         <v>0.36</v>
       </c>
       <c r="J4">
-        <v>0.2</v>
+        <v>0.187</v>
       </c>
       <c r="K4">
-        <v>0.841</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7953,16 +7950,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C5" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D5" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E5" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F5" t="s">
         <v>773</v>
@@ -7977,10 +7974,10 @@
         <v>-1.567</v>
       </c>
       <c r="J5">
-        <v>-0.87</v>
+        <v>-0.8090000000000001</v>
       </c>
       <c r="K5">
-        <v>0.384</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7988,16 +7985,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C6" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D6" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E6" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F6" t="s">
         <v>774</v>
@@ -8012,10 +8009,10 @@
         <v>-0.747</v>
       </c>
       <c r="J6">
-        <v>-0.41</v>
+        <v>-0.382</v>
       </c>
       <c r="K6">
-        <v>0.6820000000000001</v>
+        <v>0.702</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8023,16 +8020,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C7" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D7" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E7" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F7" t="s">
         <v>775</v>
@@ -8047,10 +8044,10 @@
         <v>-2.547</v>
       </c>
       <c r="J7">
-        <v>-1.406</v>
+        <v>-1.243</v>
       </c>
       <c r="K7">
-        <v>0.16</v>
+        <v>0.214</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8058,16 +8055,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C8" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D8" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E8" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F8" t="s">
         <v>154</v>
@@ -8079,13 +8076,13 @@
         <v>0.039</v>
       </c>
       <c r="I8">
-        <v>-0.5639999999999999</v>
+        <v>-0.548</v>
       </c>
       <c r="J8">
-        <v>-0.982</v>
+        <v>-0.9429999999999999</v>
       </c>
       <c r="K8">
-        <v>0.326</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8093,16 +8090,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C9" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D9" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E9" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F9" t="s">
         <v>776</v>
@@ -8117,10 +8114,10 @@
         <v>0.498</v>
       </c>
       <c r="J9">
-        <v>0.832</v>
+        <v>0.763</v>
       </c>
       <c r="K9">
-        <v>0.406</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8128,16 +8125,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C10" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D10" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E10" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F10" t="s">
         <v>777</v>
@@ -8152,10 +8149,10 @@
         <v>-0.577</v>
       </c>
       <c r="J10">
-        <v>-0.851</v>
+        <v>-0.768</v>
       </c>
       <c r="K10">
-        <v>0.395</v>
+        <v>0.443</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8163,16 +8160,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C11" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D11" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="E11" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F11" t="s">
         <v>778</v>
@@ -8187,10 +8184,10 @@
         <v>0.747</v>
       </c>
       <c r="J11">
-        <v>1.101</v>
+        <v>1.02</v>
       </c>
       <c r="K11">
-        <v>0.271</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8198,16 +8195,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C12" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D12" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E12" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F12" t="s">
         <v>778</v>
@@ -8222,10 +8219,10 @@
         <v>0.242</v>
       </c>
       <c r="J12">
-        <v>0.352</v>
+        <v>0.338</v>
       </c>
       <c r="K12">
-        <v>0.725</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8233,16 +8230,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C13" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D13" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E13" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F13" t="s">
         <v>779</v>
@@ -8257,10 +8254,10 @@
         <v>0.68</v>
       </c>
       <c r="J13">
-        <v>1.004</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="K13">
-        <v>0.316</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8268,16 +8265,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C14" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D14" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E14" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F14" t="s">
         <v>780</v>
@@ -8292,10 +8289,10 @@
         <v>-0.002</v>
       </c>
       <c r="J14">
-        <v>-0.192</v>
+        <v>-0.19</v>
       </c>
       <c r="K14">
-        <v>0.847</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8303,16 +8300,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C15" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D15" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E15" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F15" t="s">
         <v>781</v>
@@ -8327,10 +8324,10 @@
         <v>-0.005</v>
       </c>
       <c r="J15">
-        <v>-0.429</v>
+        <v>-0.395</v>
       </c>
       <c r="K15">
-        <v>0.668</v>
+        <v>0.6929999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8338,16 +8335,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C16" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D16" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E16" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F16" t="s">
         <v>782</v>
@@ -8362,10 +8359,10 @@
         <v>-0.018</v>
       </c>
       <c r="J16">
-        <v>-1.423</v>
+        <v>-1.055</v>
       </c>
       <c r="K16">
-        <v>0.155</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8373,16 +8370,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C17" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D17" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E17" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F17" t="s">
         <v>783</v>
@@ -8397,7 +8394,7 @@
         <v>-0.03</v>
       </c>
       <c r="J17">
-        <v>-2.238</v>
+        <v>-2.24</v>
       </c>
       <c r="K17">
         <v>0.025</v>
@@ -8408,16 +8405,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C18" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D18" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E18" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F18" t="s">
         <v>784</v>
@@ -8432,10 +8429,10 @@
         <v>-0.013</v>
       </c>
       <c r="J18">
-        <v>-0.914</v>
+        <v>-0.923</v>
       </c>
       <c r="K18">
-        <v>0.361</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8443,16 +8440,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C19" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D19" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E19" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F19" t="s">
         <v>785</v>
@@ -8467,10 +8464,10 @@
         <v>-0.002</v>
       </c>
       <c r="J19">
-        <v>-0.15</v>
+        <v>-0.136</v>
       </c>
       <c r="K19">
-        <v>0.881</v>
+        <v>0.892</v>
       </c>
     </row>
   </sheetData>
@@ -8543,19 +8540,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C2" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E2" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="F2" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="G2" t="s">
         <v>446</v>
@@ -8570,10 +8567,10 @@
         <v>0.68</v>
       </c>
       <c r="K2">
-        <v>0.405</v>
+        <v>0.424</v>
       </c>
       <c r="L2">
-        <v>0.6860000000000001</v>
+        <v>0.672</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8581,19 +8578,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D3" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E3" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G3" t="s">
         <v>447</v>
@@ -8608,10 +8605,10 @@
         <v>-3.383</v>
       </c>
       <c r="K3">
-        <v>-2.003</v>
+        <v>-1.99</v>
       </c>
       <c r="L3">
-        <v>0.045</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8619,19 +8616,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D4" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E4" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F4" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="G4" t="s">
         <v>448</v>
@@ -8646,10 +8643,10 @@
         <v>-1.751</v>
       </c>
       <c r="K4">
-        <v>-0.847</v>
+        <v>-0.8080000000000001</v>
       </c>
       <c r="L4">
-        <v>0.397</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8657,19 +8654,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C5" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D5" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E5" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="F5" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="G5" t="s">
         <v>449</v>
@@ -8684,10 +8681,10 @@
         <v>-3.084</v>
       </c>
       <c r="K5">
-        <v>-1.487</v>
+        <v>-1.44</v>
       </c>
       <c r="L5">
-        <v>0.137</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8695,19 +8692,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C6" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D6" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E6" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="F6" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="G6" t="s">
         <v>450</v>
@@ -8722,10 +8719,10 @@
         <v>-1.142</v>
       </c>
       <c r="K6">
-        <v>-0.544</v>
+        <v>-0.46</v>
       </c>
       <c r="L6">
-        <v>0.586</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -8733,19 +8730,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D7" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E7" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F7" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="G7" t="s">
         <v>451</v>
@@ -8760,10 +8757,10 @@
         <v>-2.568</v>
       </c>
       <c r="K7">
-        <v>-1.23</v>
+        <v>-1.033</v>
       </c>
       <c r="L7">
-        <v>0.219</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8771,19 +8768,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C8" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D8" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E8" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F8" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="G8" t="s">
         <v>452</v>
@@ -8795,13 +8792,13 @@
         <v>0.03</v>
       </c>
       <c r="J8">
-        <v>-0.351</v>
+        <v>-0.345</v>
       </c>
       <c r="K8">
-        <v>-0.53</v>
+        <v>-0.522</v>
       </c>
       <c r="L8">
-        <v>0.596</v>
+        <v>0.602</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8809,19 +8806,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C9" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D9" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E9" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F9" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="G9" t="s">
         <v>453</v>
@@ -8836,10 +8833,10 @@
         <v>1.244</v>
       </c>
       <c r="K9">
-        <v>1.805</v>
+        <v>1.654</v>
       </c>
       <c r="L9">
-        <v>0.07099999999999999</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8847,19 +8844,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C10" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D10" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E10" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F10" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="G10" t="s">
         <v>454</v>
@@ -8874,10 +8871,10 @@
         <v>0.384</v>
       </c>
       <c r="K10">
-        <v>0.491</v>
+        <v>0.443</v>
       </c>
       <c r="L10">
-        <v>0.623</v>
+        <v>0.658</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8885,19 +8882,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C11" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D11" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E11" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="F11" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="G11" t="s">
         <v>455</v>
@@ -8912,10 +8909,10 @@
         <v>1.284</v>
       </c>
       <c r="K11">
-        <v>1.643</v>
+        <v>1.627</v>
       </c>
       <c r="L11">
-        <v>0.101</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8923,19 +8920,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C12" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D12" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E12" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="F12" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="G12" t="s">
         <v>455</v>
@@ -8950,10 +8947,10 @@
         <v>0.595</v>
       </c>
       <c r="K12">
-        <v>0.75</v>
+        <v>0.642</v>
       </c>
       <c r="L12">
-        <v>0.453</v>
+        <v>0.521</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -8961,19 +8958,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C13" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D13" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E13" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="F13" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="G13" t="s">
         <v>455</v>
@@ -8988,10 +8985,10 @@
         <v>0.772</v>
       </c>
       <c r="K13">
-        <v>0.989</v>
+        <v>0.899</v>
       </c>
       <c r="L13">
-        <v>0.323</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -8999,19 +8996,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C14" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D14" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="E14" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="F14" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="G14" t="s">
         <v>456</v>
@@ -9026,10 +9023,10 @@
         <v>-0.008</v>
       </c>
       <c r="K14">
-        <v>-0.649</v>
+        <v>-0.657</v>
       </c>
       <c r="L14">
-        <v>0.517</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -9037,19 +9034,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C15" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D15" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E15" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F15" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="G15" t="s">
         <v>457</v>
@@ -9064,10 +9061,10 @@
         <v>-0.015</v>
       </c>
       <c r="K15">
-        <v>-1.139</v>
+        <v>-1.127</v>
       </c>
       <c r="L15">
-        <v>0.255</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -9075,19 +9072,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C16" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D16" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E16" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="F16" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="G16" t="s">
         <v>458</v>
@@ -9102,10 +9099,10 @@
         <v>-0.032</v>
       </c>
       <c r="K16">
-        <v>-2.174</v>
+        <v>-1.635</v>
       </c>
       <c r="L16">
-        <v>0.03</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -9113,19 +9110,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C17" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D17" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="E17" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="F17" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="G17" t="s">
         <v>459</v>
@@ -9140,10 +9137,10 @@
         <v>-0.035</v>
       </c>
       <c r="K17">
-        <v>-2.263</v>
+        <v>-2.084</v>
       </c>
       <c r="L17">
-        <v>0.024</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -9151,19 +9148,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C18" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D18" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E18" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="F18" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="G18" t="s">
         <v>460</v>
@@ -9178,10 +9175,10 @@
         <v>-0.02</v>
       </c>
       <c r="K18">
-        <v>-1.269</v>
+        <v>-1.351</v>
       </c>
       <c r="L18">
-        <v>0.205</v>
+        <v>0.177</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -9189,19 +9186,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C19" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D19" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E19" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="F19" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="G19" t="s">
         <v>461</v>
@@ -9216,10 +9213,10 @@
         <v>0.008</v>
       </c>
       <c r="K19">
-        <v>0.503</v>
+        <v>0.452</v>
       </c>
       <c r="L19">
-        <v>0.615</v>
+        <v>0.651</v>
       </c>
     </row>
   </sheetData>
@@ -9292,22 +9289,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C2" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D2" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E2" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="F2" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G2" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H2">
         <v>1572</v>
@@ -9319,10 +9316,10 @@
         <v>0.361</v>
       </c>
       <c r="K2">
-        <v>0.189</v>
+        <v>0.199</v>
       </c>
       <c r="L2">
-        <v>0.85</v>
+        <v>0.842</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -9330,22 +9327,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C3" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D3" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E3" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="F3" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="G3" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H3">
         <v>1572</v>
@@ -9357,10 +9354,10 @@
         <v>-5.024</v>
       </c>
       <c r="K3">
-        <v>-2.609</v>
+        <v>-2.693</v>
       </c>
       <c r="L3">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -9368,22 +9365,22 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C4" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D4" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F4" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="G4" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H4">
         <v>1572</v>
@@ -9395,10 +9392,10 @@
         <v>-3.545</v>
       </c>
       <c r="K4">
-        <v>-1.504</v>
+        <v>-1.432</v>
       </c>
       <c r="L4">
-        <v>0.133</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -9406,22 +9403,22 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C5" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D5" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E5" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="F5" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="G5" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H5">
         <v>1572</v>
@@ -9433,10 +9430,10 @@
         <v>-3.501</v>
       </c>
       <c r="K5">
-        <v>-1.479</v>
+        <v>-1.466</v>
       </c>
       <c r="L5">
-        <v>0.139</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -9444,22 +9441,22 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C6" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D6" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E6" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="F6" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="G6" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H6">
         <v>1572</v>
@@ -9471,10 +9468,10 @@
         <v>-3.374</v>
       </c>
       <c r="K6">
-        <v>-1.41</v>
+        <v>-1.197</v>
       </c>
       <c r="L6">
-        <v>0.159</v>
+        <v>0.231</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -9482,22 +9479,22 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C7" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D7" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E7" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="F7" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="G7" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H7">
         <v>1572</v>
@@ -9509,10 +9506,10 @@
         <v>-1.827</v>
       </c>
       <c r="K7">
-        <v>-0.767</v>
+        <v>-0.727</v>
       </c>
       <c r="L7">
-        <v>0.443</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -9520,22 +9517,22 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C8" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D8" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E8" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="F8" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="G8" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H8">
         <v>1572</v>
@@ -9547,10 +9544,10 @@
         <v>-0.126</v>
       </c>
       <c r="K8">
-        <v>-0.167</v>
+        <v>-0.174</v>
       </c>
       <c r="L8">
-        <v>0.868</v>
+        <v>0.862</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -9558,22 +9555,22 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C9" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D9" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E9" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="F9" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="G9" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H9">
         <v>1572</v>
@@ -9585,10 +9582,10 @@
         <v>1.993</v>
       </c>
       <c r="K9">
-        <v>2.538</v>
+        <v>2.477</v>
       </c>
       <c r="L9">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -9596,22 +9593,22 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C10" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D10" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="E10" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="F10" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="G10" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H10">
         <v>1572</v>
@@ -9623,10 +9620,10 @@
         <v>0.869</v>
       </c>
       <c r="K10">
-        <v>0.974</v>
+        <v>0.877</v>
       </c>
       <c r="L10">
-        <v>0.33</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -9634,22 +9631,22 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C11" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D11" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E11" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="F11" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="G11" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H11">
         <v>1572</v>
@@ -9661,10 +9658,10 @@
         <v>1.068</v>
       </c>
       <c r="K11">
-        <v>1.197</v>
+        <v>1.194</v>
       </c>
       <c r="L11">
-        <v>0.232</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -9672,22 +9669,22 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C12" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D12" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E12" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="F12" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="G12" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H12">
         <v>1572</v>
@@ -9699,10 +9696,10 @@
         <v>1.345</v>
       </c>
       <c r="K12">
-        <v>1.487</v>
+        <v>1.338</v>
       </c>
       <c r="L12">
-        <v>0.137</v>
+        <v>0.181</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -9710,22 +9707,22 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C13" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D13" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E13" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="F13" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="G13" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H13">
         <v>1572</v>
@@ -9737,10 +9734,10 @@
         <v>0.291</v>
       </c>
       <c r="K13">
-        <v>0.326</v>
+        <v>0.321</v>
       </c>
       <c r="L13">
-        <v>0.744</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -9748,19 +9745,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C14" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D14" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E14" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="F14" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="G14" t="s">
         <v>372</v>
@@ -9775,10 +9772,10 @@
         <v>-0.005</v>
       </c>
       <c r="K14">
-        <v>-0.337</v>
+        <v>-0.347</v>
       </c>
       <c r="L14">
-        <v>0.736</v>
+        <v>0.728</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -9786,22 +9783,22 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C15" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D15" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E15" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="F15" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G15" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H15">
         <v>1572</v>
@@ -9813,10 +9810,10 @@
         <v>-0.018</v>
       </c>
       <c r="K15">
-        <v>-1.203</v>
+        <v>-1.26</v>
       </c>
       <c r="L15">
-        <v>0.229</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -9824,22 +9821,22 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C16" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D16" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E16" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F16" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="G16" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H16">
         <v>1572</v>
@@ -9851,10 +9848,10 @@
         <v>-0.037</v>
       </c>
       <c r="K16">
-        <v>-2.186</v>
+        <v>-1.946</v>
       </c>
       <c r="L16">
-        <v>0.029</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -9862,22 +9859,22 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C17" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D17" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E17" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F17" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="G17" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H17">
         <v>1572</v>
@@ -9889,10 +9886,10 @@
         <v>-0.036</v>
       </c>
       <c r="K17">
-        <v>-2.023</v>
+        <v>-1.976</v>
       </c>
       <c r="L17">
-        <v>0.043</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -9900,22 +9897,22 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C18" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D18" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E18" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="F18" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="G18" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H18">
         <v>1572</v>
@@ -9927,10 +9924,10 @@
         <v>-0.02</v>
       </c>
       <c r="K18">
-        <v>-1.098</v>
+        <v>-1.283</v>
       </c>
       <c r="L18">
-        <v>0.272</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -9938,22 +9935,22 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C19" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D19" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E19" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="F19" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="G19" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H19">
         <v>1572</v>
@@ -9965,7 +9962,7 @@
         <v>0.023</v>
       </c>
       <c r="K19">
-        <v>1.222</v>
+        <v>1.22</v>
       </c>
       <c r="L19">
         <v>0.222</v>
@@ -10054,10 +10051,10 @@
         <v>2.512</v>
       </c>
       <c r="I2">
-        <v>1.377</v>
+        <v>1.337</v>
       </c>
       <c r="J2">
-        <v>0.169</v>
+        <v>0.181</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10086,10 +10083,10 @@
         <v>-2.118</v>
       </c>
       <c r="I3">
-        <v>-1.152</v>
+        <v>-1.094</v>
       </c>
       <c r="J3">
-        <v>0.249</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10118,10 +10115,10 @@
         <v>-0.584</v>
       </c>
       <c r="I4">
-        <v>-0.26</v>
+        <v>-0.228</v>
       </c>
       <c r="J4">
-        <v>0.795</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10150,10 +10147,10 @@
         <v>-2.247</v>
       </c>
       <c r="I5">
-        <v>-0.996</v>
+        <v>-0.959</v>
       </c>
       <c r="J5">
-        <v>0.319</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10182,10 +10179,10 @@
         <v>-0.245</v>
       </c>
       <c r="I6">
-        <v>-0.107</v>
+        <v>-0.099</v>
       </c>
       <c r="J6">
-        <v>0.915</v>
+        <v>0.921</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10214,10 +10211,10 @@
         <v>-4.712</v>
       </c>
       <c r="I7">
-        <v>-2.079</v>
+        <v>-2.202</v>
       </c>
       <c r="J7">
-        <v>0.038</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10243,13 +10240,13 @@
         <v>0.024</v>
       </c>
       <c r="H8">
-        <v>-1.242</v>
+        <v>-1.254</v>
       </c>
       <c r="I8">
-        <v>-1.728</v>
+        <v>-1.721</v>
       </c>
       <c r="J8">
-        <v>0.08400000000000001</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10278,10 +10275,10 @@
         <v>0.512</v>
       </c>
       <c r="I9">
-        <v>0.6830000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="J9">
-        <v>0.495</v>
+        <v>0.5679999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10310,7 +10307,7 @@
         <v>-0</v>
       </c>
       <c r="I10">
-        <v>-0.001</v>
+        <v>-0</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -10342,10 +10339,10 @@
         <v>0.93</v>
       </c>
       <c r="I11">
-        <v>1.095</v>
+        <v>0.975</v>
       </c>
       <c r="J11">
-        <v>0.274</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10374,10 +10371,10 @@
         <v>-0.114</v>
       </c>
       <c r="I12">
-        <v>-0.132</v>
+        <v>-0.124</v>
       </c>
       <c r="J12">
-        <v>0.895</v>
+        <v>0.902</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10406,10 +10403,10 @@
         <v>1.631</v>
       </c>
       <c r="I13">
-        <v>1.924</v>
+        <v>2</v>
       </c>
       <c r="J13">
-        <v>0.055</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10438,10 +10435,10 @@
         <v>-0.015</v>
       </c>
       <c r="I14">
-        <v>-1.111</v>
+        <v>-1.138</v>
       </c>
       <c r="J14">
-        <v>0.267</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10470,10 +10467,10 @@
         <v>0.001</v>
       </c>
       <c r="I15">
-        <v>0.043</v>
+        <v>0.039</v>
       </c>
       <c r="J15">
-        <v>0.965</v>
+        <v>0.969</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10502,10 +10499,10 @@
         <v>-0.025</v>
       </c>
       <c r="I16">
-        <v>-1.539</v>
+        <v>-1.287</v>
       </c>
       <c r="J16">
-        <v>0.124</v>
+        <v>0.198</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10534,10 +10531,10 @@
         <v>-0.018</v>
       </c>
       <c r="I17">
-        <v>-1.035</v>
+        <v>-1.036</v>
       </c>
       <c r="J17">
-        <v>0.301</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10566,10 +10563,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="I18">
-        <v>-0.528</v>
+        <v>-0.519</v>
       </c>
       <c r="J18">
-        <v>0.598</v>
+        <v>0.603</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10598,10 +10595,10 @@
         <v>0.007</v>
       </c>
       <c r="I19">
-        <v>0.39</v>
+        <v>0.405</v>
       </c>
       <c r="J19">
-        <v>0.697</v>
+        <v>0.6850000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -10687,10 +10684,10 @@
         <v>2.334</v>
       </c>
       <c r="I2">
-        <v>1.078</v>
+        <v>0.989</v>
       </c>
       <c r="J2">
-        <v>0.281</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10719,10 +10716,10 @@
         <v>-2.151</v>
       </c>
       <c r="I3">
-        <v>-0.986</v>
+        <v>-0.964</v>
       </c>
       <c r="J3">
-        <v>0.324</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10751,10 +10748,10 @@
         <v>-0.48</v>
       </c>
       <c r="I4">
-        <v>-0.18</v>
+        <v>-0.152</v>
       </c>
       <c r="J4">
-        <v>0.857</v>
+        <v>0.879</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10783,10 +10780,10 @@
         <v>-3.773</v>
       </c>
       <c r="I5">
-        <v>-1.41</v>
+        <v>-1.343</v>
       </c>
       <c r="J5">
-        <v>0.159</v>
+        <v>0.179</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10815,10 +10812,10 @@
         <v>-1.249</v>
       </c>
       <c r="I6">
-        <v>-0.461</v>
+        <v>-0.408</v>
       </c>
       <c r="J6">
-        <v>0.645</v>
+        <v>0.6830000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10847,10 +10844,10 @@
         <v>-5.628</v>
       </c>
       <c r="I7">
-        <v>-2.093</v>
+        <v>-2.046</v>
       </c>
       <c r="J7">
-        <v>0.037</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10876,13 +10873,13 @@
         <v>0.018</v>
       </c>
       <c r="H8">
-        <v>-1.139</v>
+        <v>-1.181</v>
       </c>
       <c r="I8">
-        <v>-1.335</v>
+        <v>-1.253</v>
       </c>
       <c r="J8">
-        <v>0.182</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10911,10 +10908,10 @@
         <v>0.53</v>
       </c>
       <c r="I9">
-        <v>0.596</v>
+        <v>0.523</v>
       </c>
       <c r="J9">
-        <v>0.551</v>
+        <v>0.601</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10943,10 +10940,10 @@
         <v>0.214</v>
       </c>
       <c r="I10">
-        <v>0.212</v>
+        <v>0.172</v>
       </c>
       <c r="J10">
-        <v>0.832</v>
+        <v>0.863</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10975,10 +10972,10 @@
         <v>1.492</v>
       </c>
       <c r="I11">
-        <v>1.481</v>
+        <v>1.321</v>
       </c>
       <c r="J11">
-        <v>0.139</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11007,10 +11004,10 @@
         <v>0.394</v>
       </c>
       <c r="I12">
-        <v>0.385</v>
+        <v>0.343</v>
       </c>
       <c r="J12">
-        <v>0.7</v>
+        <v>0.732</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11039,10 +11036,10 @@
         <v>2.267</v>
       </c>
       <c r="I13">
-        <v>2.254</v>
+        <v>2.288</v>
       </c>
       <c r="J13">
-        <v>0.024</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11071,10 +11068,10 @@
         <v>-0.013</v>
       </c>
       <c r="I14">
-        <v>-0.8110000000000001</v>
+        <v>-0.843</v>
       </c>
       <c r="J14">
-        <v>0.417</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11103,10 +11100,10 @@
         <v>-0.015</v>
       </c>
       <c r="I15">
-        <v>-0.857</v>
+        <v>-0.768</v>
       </c>
       <c r="J15">
-        <v>0.391</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11135,10 +11132,10 @@
         <v>-0.037</v>
       </c>
       <c r="I16">
-        <v>-1.953</v>
+        <v>-1.663</v>
       </c>
       <c r="J16">
-        <v>0.051</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11167,10 +11164,10 @@
         <v>-0.021</v>
       </c>
       <c r="I17">
-        <v>-1.033</v>
+        <v>-0.895</v>
       </c>
       <c r="J17">
-        <v>0.302</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11199,10 +11196,10 @@
         <v>-0.028</v>
       </c>
       <c r="I18">
-        <v>-1.35</v>
+        <v>-1.343</v>
       </c>
       <c r="J18">
-        <v>0.177</v>
+        <v>0.179</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11231,10 +11228,10 @@
         <v>0.016</v>
       </c>
       <c r="I19">
-        <v>0.762</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="J19">
-        <v>0.446</v>
+        <v>0.418</v>
       </c>
     </row>
   </sheetData>
@@ -11320,10 +11317,10 @@
         <v>1.887</v>
       </c>
       <c r="I2">
-        <v>0.757</v>
+        <v>0.703</v>
       </c>
       <c r="J2">
-        <v>0.449</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11352,10 +11349,10 @@
         <v>-4.059</v>
       </c>
       <c r="I3">
-        <v>-1.618</v>
+        <v>-1.678</v>
       </c>
       <c r="J3">
-        <v>0.106</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11384,10 +11381,10 @@
         <v>-3.622</v>
       </c>
       <c r="I4">
-        <v>-1.181</v>
+        <v>-0.954</v>
       </c>
       <c r="J4">
-        <v>0.238</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11416,10 +11413,10 @@
         <v>-4.615</v>
       </c>
       <c r="I5">
-        <v>-1.499</v>
+        <v>-1.538</v>
       </c>
       <c r="J5">
-        <v>0.134</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11448,10 +11445,10 @@
         <v>-2.228</v>
       </c>
       <c r="I6">
-        <v>-0.715</v>
+        <v>-0.666</v>
       </c>
       <c r="J6">
-        <v>0.475</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11480,10 +11477,10 @@
         <v>-4.819</v>
       </c>
       <c r="I7">
-        <v>-1.556</v>
+        <v>-1.56</v>
       </c>
       <c r="J7">
-        <v>0.12</v>
+        <v>0.119</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11509,13 +11506,13 @@
         <v>0.014</v>
       </c>
       <c r="H8">
-        <v>-0.93</v>
+        <v>-0.976</v>
       </c>
       <c r="I8">
-        <v>-0.947</v>
+        <v>-0.91</v>
       </c>
       <c r="J8">
-        <v>0.344</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11544,10 +11541,10 @@
         <v>1.368</v>
       </c>
       <c r="I9">
-        <v>1.338</v>
+        <v>1.259</v>
       </c>
       <c r="J9">
-        <v>0.181</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11576,10 +11573,10 @@
         <v>1.285</v>
       </c>
       <c r="I10">
-        <v>1.107</v>
+        <v>0.882</v>
       </c>
       <c r="J10">
-        <v>0.268</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11608,10 +11605,10 @@
         <v>1.457</v>
       </c>
       <c r="I11">
-        <v>1.255</v>
+        <v>1.188</v>
       </c>
       <c r="J11">
-        <v>0.21</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11640,10 +11637,10 @@
         <v>0.61</v>
       </c>
       <c r="I12">
-        <v>0.518</v>
+        <v>0.504</v>
       </c>
       <c r="J12">
-        <v>0.605</v>
+        <v>0.614</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11672,10 +11669,10 @@
         <v>1.762</v>
       </c>
       <c r="I13">
-        <v>1.521</v>
+        <v>1.653</v>
       </c>
       <c r="J13">
-        <v>0.129</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11704,10 +11701,10 @@
         <v>-0.016</v>
       </c>
       <c r="I14">
-        <v>-0.829</v>
+        <v>-0.857</v>
       </c>
       <c r="J14">
-        <v>0.407</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11736,10 +11733,10 @@
         <v>-0.014</v>
       </c>
       <c r="I15">
-        <v>-0.726</v>
+        <v>-0.7</v>
       </c>
       <c r="J15">
-        <v>0.468</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11768,10 +11765,10 @@
         <v>-0.039</v>
       </c>
       <c r="I16">
-        <v>-1.749</v>
+        <v>-1.635</v>
       </c>
       <c r="J16">
-        <v>0.08</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11800,10 +11797,10 @@
         <v>-0.006</v>
       </c>
       <c r="I17">
-        <v>-0.273</v>
+        <v>-0.268</v>
       </c>
       <c r="J17">
-        <v>0.785</v>
+        <v>0.788</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11832,10 +11829,10 @@
         <v>-0.029</v>
       </c>
       <c r="I18">
-        <v>-1.227</v>
+        <v>-1.282</v>
       </c>
       <c r="J18">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11864,10 +11861,10 @@
         <v>0.018</v>
       </c>
       <c r="I19">
-        <v>0.745</v>
+        <v>0.861</v>
       </c>
       <c r="J19">
-        <v>0.456</v>
+        <v>0.389</v>
       </c>
     </row>
   </sheetData>
@@ -11953,10 +11950,10 @@
         <v>0.262</v>
       </c>
       <c r="I2">
-        <v>0.192</v>
+        <v>0.187</v>
       </c>
       <c r="J2">
-        <v>0.848</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11985,10 +11982,10 @@
         <v>-2.253</v>
       </c>
       <c r="I3">
-        <v>-1.645</v>
+        <v>-1.284</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12017,10 +12014,10 @@
         <v>0.022</v>
       </c>
       <c r="I4">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="J4">
-        <v>0.99</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12049,10 +12046,10 @@
         <v>-0.342</v>
       </c>
       <c r="I5">
-        <v>-0.203</v>
+        <v>-0.207</v>
       </c>
       <c r="J5">
-        <v>0.839</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12081,10 +12078,10 @@
         <v>0.694</v>
       </c>
       <c r="I6">
-        <v>0.408</v>
+        <v>0.379</v>
       </c>
       <c r="J6">
-        <v>0.6830000000000001</v>
+        <v>0.705</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12113,10 +12110,10 @@
         <v>-0.625</v>
       </c>
       <c r="I7">
-        <v>-0.369</v>
+        <v>-0.322</v>
       </c>
       <c r="J7">
-        <v>0.712</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12142,13 +12139,13 @@
         <v>0.044</v>
       </c>
       <c r="H8">
-        <v>-0.189</v>
+        <v>-0.197</v>
       </c>
       <c r="I8">
-        <v>-0.353</v>
+        <v>-0.361</v>
       </c>
       <c r="J8">
-        <v>0.724</v>
+        <v>0.718</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12177,10 +12174,10 @@
         <v>1.009</v>
       </c>
       <c r="I9">
-        <v>1.807</v>
+        <v>1.407</v>
       </c>
       <c r="J9">
-        <v>0.07099999999999999</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12209,10 +12206,10 @@
         <v>0.194</v>
       </c>
       <c r="I10">
-        <v>0.305</v>
+        <v>0.257</v>
       </c>
       <c r="J10">
-        <v>0.76</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12241,10 +12238,10 @@
         <v>0.498</v>
       </c>
       <c r="I11">
-        <v>0.786</v>
+        <v>0.724</v>
       </c>
       <c r="J11">
-        <v>0.432</v>
+        <v>0.469</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12273,10 +12270,10 @@
         <v>-0.046</v>
       </c>
       <c r="I12">
-        <v>-0.07199999999999999</v>
+        <v>-0.068</v>
       </c>
       <c r="J12">
-        <v>0.9419999999999999</v>
+        <v>0.946</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12305,10 +12302,10 @@
         <v>0.206</v>
       </c>
       <c r="I13">
-        <v>0.326</v>
+        <v>0.277</v>
       </c>
       <c r="J13">
-        <v>0.745</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12337,10 +12334,10 @@
         <v>-0.002</v>
       </c>
       <c r="I14">
-        <v>-0.214</v>
+        <v>-0.212</v>
       </c>
       <c r="J14">
-        <v>0.83</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12369,10 +12366,10 @@
         <v>-0.005</v>
       </c>
       <c r="I15">
-        <v>-0.423</v>
+        <v>-0.39</v>
       </c>
       <c r="J15">
-        <v>0.673</v>
+        <v>0.697</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12401,10 +12398,10 @@
         <v>-0.011</v>
       </c>
       <c r="I16">
-        <v>-0.871</v>
+        <v>-0.743</v>
       </c>
       <c r="J16">
-        <v>0.384</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12433,10 +12430,10 @@
         <v>-0.004</v>
       </c>
       <c r="I17">
-        <v>-0.309</v>
+        <v>-0.303</v>
       </c>
       <c r="J17">
-        <v>0.758</v>
+        <v>0.762</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12465,7 +12462,7 @@
         <v>-0</v>
       </c>
       <c r="I18">
-        <v>-0.021</v>
+        <v>-0.02</v>
       </c>
       <c r="J18">
         <v>0.984</v>
@@ -12497,10 +12494,10 @@
         <v>0.019</v>
       </c>
       <c r="I19">
-        <v>1.441</v>
+        <v>1.534</v>
       </c>
       <c r="J19">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
     </row>
   </sheetData>
@@ -12593,10 +12590,10 @@
         <v>-0.155</v>
       </c>
       <c r="J2">
-        <v>-0.094</v>
+        <v>-0.091</v>
       </c>
       <c r="K2">
-        <v>0.925</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -12628,10 +12625,10 @@
         <v>-2.94</v>
       </c>
       <c r="J3">
-        <v>-1.77</v>
+        <v>-1.49</v>
       </c>
       <c r="K3">
-        <v>0.077</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -12663,10 +12660,10 @@
         <v>-0.08</v>
       </c>
       <c r="J4">
-        <v>-0.039</v>
+        <v>-0.036</v>
       </c>
       <c r="K4">
-        <v>0.969</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -12698,10 +12695,10 @@
         <v>-1.339</v>
       </c>
       <c r="J5">
-        <v>-0.657</v>
+        <v>-0.664</v>
       </c>
       <c r="K5">
-        <v>0.512</v>
+        <v>0.507</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -12733,10 +12730,10 @@
         <v>-0.376</v>
       </c>
       <c r="J6">
-        <v>-0.183</v>
+        <v>-0.172</v>
       </c>
       <c r="K6">
-        <v>0.855</v>
+        <v>0.864</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -12768,10 +12765,10 @@
         <v>-3.664</v>
       </c>
       <c r="J7">
-        <v>-1.787</v>
+        <v>-1.706</v>
       </c>
       <c r="K7">
-        <v>0.074</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -12800,13 +12797,13 @@
         <v>0.03</v>
       </c>
       <c r="I8">
-        <v>-0.113</v>
+        <v>-0.115</v>
       </c>
       <c r="J8">
-        <v>-0.173</v>
+        <v>-0.176</v>
       </c>
       <c r="K8">
-        <v>0.863</v>
+        <v>0.861</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -12838,10 +12835,10 @@
         <v>1.02</v>
       </c>
       <c r="J9">
-        <v>1.507</v>
+        <v>1.185</v>
       </c>
       <c r="K9">
-        <v>0.132</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -12873,10 +12870,10 @@
         <v>-0.125</v>
       </c>
       <c r="J10">
-        <v>-0.162</v>
+        <v>-0.138</v>
       </c>
       <c r="K10">
-        <v>0.871</v>
+        <v>0.891</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -12908,10 +12905,10 @@
         <v>0.649</v>
       </c>
       <c r="J11">
-        <v>0.845</v>
+        <v>0.781</v>
       </c>
       <c r="K11">
-        <v>0.398</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -12943,10 +12940,10 @@
         <v>0.114</v>
       </c>
       <c r="J12">
-        <v>0.146</v>
+        <v>0.131</v>
       </c>
       <c r="K12">
-        <v>0.884</v>
+        <v>0.896</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -12978,10 +12975,10 @@
         <v>1.16</v>
       </c>
       <c r="J13">
-        <v>1.513</v>
+        <v>1.452</v>
       </c>
       <c r="K13">
-        <v>0.131</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -13013,10 +13010,10 @@
         <v>-0.011</v>
       </c>
       <c r="J14">
-        <v>-0.89</v>
+        <v>-0.887</v>
       </c>
       <c r="K14">
-        <v>0.374</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -13048,10 +13045,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="J15">
-        <v>-0.667</v>
+        <v>-0.604</v>
       </c>
       <c r="K15">
-        <v>0.505</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -13083,10 +13080,10 @@
         <v>-0.025</v>
       </c>
       <c r="J16">
-        <v>-1.732</v>
+        <v>-1.401</v>
       </c>
       <c r="K16">
-        <v>0.08400000000000001</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -13118,10 +13115,10 @@
         <v>-0.028</v>
       </c>
       <c r="J17">
-        <v>-1.814</v>
+        <v>-1.734</v>
       </c>
       <c r="K17">
-        <v>0.07000000000000001</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -13153,10 +13150,10 @@
         <v>-0.012</v>
       </c>
       <c r="J18">
-        <v>-0.791</v>
+        <v>-0.784</v>
       </c>
       <c r="K18">
-        <v>0.429</v>
+        <v>0.433</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -13188,10 +13185,10 @@
         <v>0.01</v>
       </c>
       <c r="J19">
-        <v>0.63</v>
+        <v>0.636</v>
       </c>
       <c r="K19">
-        <v>0.529</v>
+        <v>0.525</v>
       </c>
     </row>
   </sheetData>
@@ -13284,10 +13281,10 @@
         <v>-0.912</v>
       </c>
       <c r="J2">
-        <v>-0.476</v>
+        <v>-0.498</v>
       </c>
       <c r="K2">
-        <v>0.634</v>
+        <v>0.619</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -13319,10 +13316,10 @@
         <v>-3.395</v>
       </c>
       <c r="J3">
-        <v>-1.759</v>
+        <v>-1.576</v>
       </c>
       <c r="K3">
-        <v>0.079</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -13354,10 +13351,10 @@
         <v>-0.401</v>
       </c>
       <c r="J4">
-        <v>-0.17</v>
+        <v>-0.155</v>
       </c>
       <c r="K4">
-        <v>0.865</v>
+        <v>0.877</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -13389,10 +13386,10 @@
         <v>-2.228</v>
       </c>
       <c r="J5">
-        <v>-0.9399999999999999</v>
+        <v>-0.987</v>
       </c>
       <c r="K5">
-        <v>0.347</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -13424,10 +13421,10 @@
         <v>-0.926</v>
       </c>
       <c r="J6">
-        <v>-0.387</v>
+        <v>-0.33</v>
       </c>
       <c r="K6">
-        <v>0.699</v>
+        <v>0.741</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -13459,10 +13456,10 @@
         <v>-4.806</v>
       </c>
       <c r="J7">
-        <v>-2.018</v>
+        <v>-1.771</v>
       </c>
       <c r="K7">
-        <v>0.044</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -13491,13 +13488,13 @@
         <v>0.023</v>
       </c>
       <c r="I8">
-        <v>0.11</v>
+        <v>0.097</v>
       </c>
       <c r="J8">
-        <v>0.145</v>
+        <v>0.132</v>
       </c>
       <c r="K8">
-        <v>0.885</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -13529,10 +13526,10 @@
         <v>1.375</v>
       </c>
       <c r="J9">
-        <v>1.747</v>
+        <v>1.479</v>
       </c>
       <c r="K9">
-        <v>0.081</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -13564,10 +13561,10 @@
         <v>0.368</v>
       </c>
       <c r="J10">
-        <v>0.412</v>
+        <v>0.347</v>
       </c>
       <c r="K10">
-        <v>0.68</v>
+        <v>0.728</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -13599,10 +13596,10 @@
         <v>1.058</v>
       </c>
       <c r="J11">
-        <v>1.185</v>
+        <v>1.182</v>
       </c>
       <c r="K11">
-        <v>0.236</v>
+        <v>0.237</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -13634,10 +13631,10 @@
         <v>0.483</v>
       </c>
       <c r="J12">
-        <v>0.533</v>
+        <v>0.45</v>
       </c>
       <c r="K12">
-        <v>0.594</v>
+        <v>0.653</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -13669,10 +13666,10 @@
         <v>1.72</v>
       </c>
       <c r="J13">
-        <v>1.931</v>
+        <v>1.759</v>
       </c>
       <c r="K13">
-        <v>0.054</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -13704,10 +13701,10 @@
         <v>-0.022</v>
       </c>
       <c r="J14">
-        <v>-1.492</v>
+        <v>-1.401</v>
       </c>
       <c r="K14">
-        <v>0.136</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -13739,10 +13736,10 @@
         <v>-0.02</v>
       </c>
       <c r="J15">
-        <v>-1.304</v>
+        <v>-1.232</v>
       </c>
       <c r="K15">
-        <v>0.192</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -13774,10 +13771,10 @@
         <v>-0.04</v>
       </c>
       <c r="J16">
-        <v>-2.33</v>
+        <v>-1.89</v>
       </c>
       <c r="K16">
-        <v>0.02</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -13809,10 +13806,10 @@
         <v>-0.033</v>
       </c>
       <c r="J17">
-        <v>-1.862</v>
+        <v>-1.598</v>
       </c>
       <c r="K17">
-        <v>0.063</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -13844,10 +13841,10 @@
         <v>-0.021</v>
       </c>
       <c r="J18">
-        <v>-1.141</v>
+        <v>-1.194</v>
       </c>
       <c r="K18">
-        <v>0.254</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -13879,10 +13876,10 @@
         <v>0.023</v>
       </c>
       <c r="J19">
-        <v>1.189</v>
+        <v>1.143</v>
       </c>
       <c r="K19">
-        <v>0.235</v>
+        <v>0.253</v>
       </c>
     </row>
   </sheetData>
@@ -13975,10 +13972,10 @@
         <v>-0.9379999999999999</v>
       </c>
       <c r="J2">
-        <v>-0.427</v>
+        <v>-0.451</v>
       </c>
       <c r="K2">
-        <v>0.669</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -14010,10 +14007,10 @@
         <v>-5.281</v>
       </c>
       <c r="J3">
-        <v>-2.394</v>
+        <v>-2.168</v>
       </c>
       <c r="K3">
-        <v>0.017</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -14045,10 +14042,10 @@
         <v>-2.528</v>
       </c>
       <c r="J4">
-        <v>-0.9360000000000001</v>
+        <v>-0.867</v>
       </c>
       <c r="K4">
-        <v>0.349</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -14080,10 +14077,10 @@
         <v>-3.152</v>
       </c>
       <c r="J5">
-        <v>-1.163</v>
+        <v>-1.311</v>
       </c>
       <c r="K5">
-        <v>0.245</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -14115,10 +14112,10 @@
         <v>-2.244</v>
       </c>
       <c r="J6">
-        <v>-0.819</v>
+        <v>-0.779</v>
       </c>
       <c r="K6">
-        <v>0.413</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -14150,10 +14147,10 @@
         <v>-3.781</v>
       </c>
       <c r="J7">
-        <v>-1.386</v>
+        <v>-1.334</v>
       </c>
       <c r="K7">
-        <v>0.166</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -14182,13 +14179,13 @@
         <v>0.017</v>
       </c>
       <c r="I8">
-        <v>0.145</v>
+        <v>0.134</v>
       </c>
       <c r="J8">
-        <v>0.167</v>
+        <v>0.16</v>
       </c>
       <c r="K8">
-        <v>0.867</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -14220,10 +14217,10 @@
         <v>2.224</v>
       </c>
       <c r="J9">
-        <v>2.474</v>
+        <v>2.174</v>
       </c>
       <c r="K9">
-        <v>0.013</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -14255,10 +14252,10 @@
         <v>1.057</v>
       </c>
       <c r="J10">
-        <v>1.035</v>
+        <v>0.902</v>
       </c>
       <c r="K10">
-        <v>0.301</v>
+        <v>0.367</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -14290,10 +14287,10 @@
         <v>1.006</v>
       </c>
       <c r="J11">
-        <v>0.985</v>
+        <v>1.054</v>
       </c>
       <c r="K11">
-        <v>0.325</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -14325,10 +14322,10 @@
         <v>0.749</v>
       </c>
       <c r="J12">
-        <v>0.723</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="K12">
-        <v>0.47</v>
+        <v>0.489</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -14360,10 +14357,10 @@
         <v>1.087</v>
       </c>
       <c r="J13">
-        <v>1.065</v>
+        <v>1.083</v>
       </c>
       <c r="K13">
-        <v>0.287</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -14395,10 +14392,10 @@
         <v>-0.024</v>
       </c>
       <c r="J14">
-        <v>-1.447</v>
+        <v>-1.354</v>
       </c>
       <c r="K14">
-        <v>0.148</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -14430,10 +14427,10 @@
         <v>-0.021</v>
       </c>
       <c r="J15">
-        <v>-1.211</v>
+        <v>-1.174</v>
       </c>
       <c r="K15">
-        <v>0.226</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -14465,10 +14462,10 @@
         <v>-0.048</v>
       </c>
       <c r="J16">
-        <v>-2.476</v>
+        <v>-2.31</v>
       </c>
       <c r="K16">
-        <v>0.013</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -14500,10 +14497,10 @@
         <v>-0.029</v>
       </c>
       <c r="J17">
-        <v>-1.414</v>
+        <v>-1.365</v>
       </c>
       <c r="K17">
-        <v>0.158</v>
+        <v>0.172</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -14535,10 +14532,10 @@
         <v>-0.02</v>
       </c>
       <c r="J18">
-        <v>-0.977</v>
+        <v>-1.119</v>
       </c>
       <c r="K18">
-        <v>0.329</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -14570,10 +14567,10 @@
         <v>0.03</v>
       </c>
       <c r="J19">
-        <v>1.367</v>
+        <v>1.551</v>
       </c>
       <c r="K19">
-        <v>0.172</v>
+        <v>0.121</v>
       </c>
     </row>
   </sheetData>
@@ -14659,10 +14656,10 @@
         <v>1.306</v>
       </c>
       <c r="I2">
-        <v>1.017</v>
+        <v>1.006</v>
       </c>
       <c r="J2">
-        <v>0.309</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -14691,10 +14688,10 @@
         <v>-2.508</v>
       </c>
       <c r="I3">
-        <v>-1.943</v>
+        <v>-1.679</v>
       </c>
       <c r="J3">
-        <v>0.052</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -14723,10 +14720,10 @@
         <v>-0.321</v>
       </c>
       <c r="I4">
-        <v>-0.203</v>
+        <v>-0.177</v>
       </c>
       <c r="J4">
-        <v>0.839</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -14755,10 +14752,10 @@
         <v>-1.584</v>
       </c>
       <c r="I5">
-        <v>-0.999</v>
+        <v>-0.906</v>
       </c>
       <c r="J5">
-        <v>0.318</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -14787,10 +14784,10 @@
         <v>0.506</v>
       </c>
       <c r="I6">
-        <v>0.315</v>
+        <v>0.266</v>
       </c>
       <c r="J6">
-        <v>0.753</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -14819,10 +14816,10 @@
         <v>0.274</v>
       </c>
       <c r="I7">
-        <v>0.172</v>
+        <v>0.147</v>
       </c>
       <c r="J7">
-        <v>0.864</v>
+        <v>0.883</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -14848,13 +14845,13 @@
         <v>0.05</v>
       </c>
       <c r="H8">
-        <v>-0.652</v>
+        <v>-0.656</v>
       </c>
       <c r="I8">
-        <v>-1.289</v>
+        <v>-1.262</v>
       </c>
       <c r="J8">
-        <v>0.198</v>
+        <v>0.207</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -14883,10 +14880,10 @@
         <v>0.894</v>
       </c>
       <c r="I9">
-        <v>1.698</v>
+        <v>1.404</v>
       </c>
       <c r="J9">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -14915,10 +14912,10 @@
         <v>0.169</v>
       </c>
       <c r="I10">
-        <v>0.282</v>
+        <v>0.226</v>
       </c>
       <c r="J10">
-        <v>0.778</v>
+        <v>0.821</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -14947,10 +14944,10 @@
         <v>0.89</v>
       </c>
       <c r="I11">
-        <v>1.49</v>
+        <v>1.273</v>
       </c>
       <c r="J11">
-        <v>0.137</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -14979,10 +14976,10 @@
         <v>0.113</v>
       </c>
       <c r="I12">
-        <v>0.187</v>
+        <v>0.161</v>
       </c>
       <c r="J12">
-        <v>0.852</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -15011,10 +15008,10 @@
         <v>-0.248</v>
       </c>
       <c r="I13">
-        <v>-0.415</v>
+        <v>-0.351</v>
       </c>
       <c r="J13">
-        <v>0.678</v>
+        <v>0.726</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -15043,10 +15040,10 @@
         <v>-0.004</v>
       </c>
       <c r="I14">
-        <v>-0.395</v>
+        <v>-0.375</v>
       </c>
       <c r="J14">
-        <v>0.6929999999999999</v>
+        <v>0.708</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -15075,10 +15072,10 @@
         <v>-0.013</v>
       </c>
       <c r="I15">
-        <v>-1.287</v>
+        <v>-1.126</v>
       </c>
       <c r="J15">
-        <v>0.198</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -15107,10 +15104,10 @@
         <v>-0.01</v>
       </c>
       <c r="I16">
-        <v>-0.885</v>
+        <v>-0.716</v>
       </c>
       <c r="J16">
-        <v>0.376</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -15139,10 +15136,10 @@
         <v>-0.004</v>
       </c>
       <c r="I17">
-        <v>-0.299</v>
+        <v>-0.292</v>
       </c>
       <c r="J17">
-        <v>0.765</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -15171,10 +15168,10 @@
         <v>-0.003</v>
       </c>
       <c r="I18">
-        <v>-0.272</v>
+        <v>-0.238</v>
       </c>
       <c r="J18">
-        <v>0.786</v>
+        <v>0.8120000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -15203,10 +15200,10 @@
         <v>0.02</v>
       </c>
       <c r="I19">
-        <v>1.604</v>
+        <v>1.562</v>
       </c>
       <c r="J19">
-        <v>0.109</v>
+        <v>0.118</v>
       </c>
     </row>
   </sheetData>
